--- a/data/input/absenteeism_data_17.xlsx
+++ b/data/input/absenteeism_data_17.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22793</v>
+        <v>1197</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Lucca Moreira</t>
+          <t>Rafael Lima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45086</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>3154.5</v>
+        <v>4064.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22492</v>
+        <v>53025</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marina Fogaça</t>
+          <t>Júlia Cavalcanti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>5179.64</v>
+        <v>11262.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36117</v>
+        <v>13601</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yago Fogaça</t>
+          <t>Davi Luiz Melo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>10390.48</v>
+        <v>8222.280000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>41668</v>
+        <v>43494</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Matheus Costela</t>
+          <t>Luiz Otávio Caldeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>6031.7</v>
+        <v>11029.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94899</v>
+        <v>84921</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thomas Martins</t>
+          <t>Pedro Jesus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>3734.25</v>
+        <v>5226.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9607</v>
+        <v>35283</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eduardo Santos</t>
+          <t>Isaac das Neves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>3333.85</v>
+        <v>8859.889999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1202</v>
+        <v>51776</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maysa Costa</t>
+          <t>João Guilherme da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>7935.91</v>
+        <v>4630.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63020</v>
+        <v>26730</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pedro Henrique Correia</t>
+          <t>Julia da Luz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>8767.610000000001</v>
+        <v>9261.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1585</v>
+        <v>20519</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Danilo Oliveira</t>
+          <t>Bryan Lima</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>6694.79</v>
+        <v>8598.049999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73885</v>
+        <v>84613</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Cauê das Neves</t>
+          <t>Dr. Enrico da Mata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>11900.27</v>
+        <v>5523.85</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_17.xlsx
+++ b/data/input/absenteeism_data_17.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1197</v>
+        <v>58738</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rafael Lima</t>
+          <t>Maria Sophia Souza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>4064.33</v>
+        <v>8360.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>53025</v>
+        <v>48301</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Júlia Cavalcanti</t>
+          <t>Leonardo Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>11262.36</v>
+        <v>3989.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13601</v>
+        <v>33432</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi Luiz Melo</t>
+          <t>Gabrielly Nascimento</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>8222.280000000001</v>
+        <v>8767.629999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43494</v>
+        <v>44707</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiz Otávio Caldeira</t>
+          <t>Maria Luiza Moraes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>11029.39</v>
+        <v>8278.870000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84921</v>
+        <v>4190</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pedro Jesus</t>
+          <t>Luana Ramos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>5226.13</v>
+        <v>3261.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35283</v>
+        <v>48269</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isaac das Neves</t>
+          <t>Lavínia das Neves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>8859.889999999999</v>
+        <v>8969.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>51776</v>
+        <v>66573</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Guilherme da Cruz</t>
+          <t>Luiz Miguel Vieira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>4630.28</v>
+        <v>12461.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26730</v>
+        <v>58556</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Julia da Luz</t>
+          <t>Bárbara Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>9261.4</v>
+        <v>5437.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20519</v>
+        <v>29759</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bryan Lima</t>
+          <t>Isaac Moraes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>8598.049999999999</v>
+        <v>9846.620000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84613</v>
+        <v>53275</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Enrico da Mata</t>
+          <t>Breno Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>5523.85</v>
+        <v>3113.84</v>
       </c>
     </row>
   </sheetData>
